--- a/DTC/dtc_report.xlsx
+++ b/DTC/dtc_report.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,12 +514,12 @@
     <row r="3" ht="100" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>0x31e24b</t>
+          <t>0x31fb00</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>MCU Over Temp</t>
+          <t>Motor Position Sensor Fault</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -534,18 +534,18 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>Fault</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>0Nm</t>
+          <t>ASC</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>1. Verify that the coolant hoses are properly connected to the motor.
-2. Verify that the coolant temperature is within specifications.
+          <t>1. Verify that the harness is connected properly to the MCU and the motor.
+2. Replace the motor
 3. Replace the MCU.</t>
         </is>
       </c>
@@ -553,12 +553,12 @@
     <row r="4" ht="100" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0x31e54b</t>
+          <t>0x34f800</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>uC Over Temp</t>
+          <t>VCU Comm Lost During Motion</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -583,19 +583,21 @@
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>Replace the MCU.</t>
+          <t>1. Verify that the harness is connected properly to the MCU and the vehicle.
+2. Replace the VCU.
+3. Replace the MCU.</t>
         </is>
       </c>
     </row>
     <row r="5" ht="100" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>0x31f217</t>
+          <t>0x34f901</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>BAT High Voltage</t>
+          <t>Perf. Derating – BAT voltage Limit</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -610,35 +612,29 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>Fault</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>0Nm</t>
+          <t>None</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>1. Verify that the high voltage cables between the vehicle and the MCU are not
-    harmed.
-2. Verify that the high voltage cables between the vehicle and the MCU are
-    connected properly.
-3. Verify the supplied high voltage is within specifications.
-4. Replace the high voltage cables between the vehicle and the MCU.
-5. Replace the MCU.</t>
+          <t>Not required</t>
         </is>
       </c>
     </row>
     <row r="6" ht="100" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>0x31f317</t>
+          <t>0xd15400</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>BAT Over Voltage</t>
+          <t>VCU Node Absent</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -653,35 +649,31 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>ASC</t>
+          <t>AllOFV</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>1. Verify that the high voltage cables between the vehicle and the MCU are not
-    harmed.
-2. Verify that the high voltage cables between the vehicle and the MCU are
-    connected properly.
-3. Verify the supplied high voltage is within specifications.
-4. Replace the high voltage cables between the vehicle and the MCU.
-5. Replace the MCU.</t>
+          <t>1. Verify that the harness is connected properly to the MCU and the vehicle.
+2. Replace the VCU.
+3. Replace the MCU.</t>
         </is>
       </c>
     </row>
     <row r="7" ht="100" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>0x34f800</t>
+          <t>0xd12600</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>VCU Comm Lost During Motion</t>
+          <t>BMS Node Absent</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -696,18 +688,18 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>Fault</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>0Nm</t>
+          <t>BMS5_10 MsgOFV</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
           <t>1. Verify that the harness is connected properly to the MCU and the vehicle.
-2. Replace the VCU.
+2. Replace the BMS.
 3. Replace the MCU.</t>
         </is>
       </c>
@@ -715,12 +707,12 @@
     <row r="8" ht="100" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>0x34fa01</t>
+          <t>0xe84b00</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Perf. Derating – MCU Temp</t>
+          <t>Feature Code Error</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -745,280 +737,8 @@
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>Not required</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="100" customHeight="1">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>0xd22101</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>Main CAN Error Active</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>0x27</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>Warning</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>1. Verify that the harness is connected properly to the MCU and the vehicle.
-2. Verify that the main CAN communication channel is active.
-3. Replace the MCU.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="100" customHeight="1">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>0x31e44b</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>Cooling Plate Over Temp</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>0x27</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>Fault</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
-        <is>
-          <t>0Nm</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>1. Verify that the coolant hoses are properly connected to the motor.
-2. Verify that the coolant temperature is within specifications.
-3. Replace the MCU.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="100" customHeight="1">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>0xd05400</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>CAN MSG VCU8_10 Timeout</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>0x27</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>Warning</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="inlineStr">
-        <is>
-          <t>VCU8_10 MsgOFV</t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>1. Verify that the harness is connected properly to the MCU and the vehicle.
-2. Replace the VCU.
-3. Replace the MCU.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="100" customHeight="1">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>0xd15400</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>VCU Node Absent</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>0x27</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>Warning</t>
-        </is>
-      </c>
-      <c r="F12" s="1" t="inlineStr">
-        <is>
-          <t>AllOFV</t>
-        </is>
-      </c>
-      <c r="G12" s="1" t="inlineStr">
-        <is>
-          <t>1. Verify that the harness is connected properly to the MCU and the vehicle.
-2. Replace the VCU.
-3. Replace the MCU.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="100" customHeight="1">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>0xd12600</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>BMS Node Absent</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>0x27</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t>Warning</t>
-        </is>
-      </c>
-      <c r="F13" s="1" t="inlineStr">
-        <is>
-          <t>BMS5_10 MsgOFV</t>
-        </is>
-      </c>
-      <c r="G13" s="1" t="inlineStr">
-        <is>
-          <t>1. Verify that the harness is connected properly to the MCU and the vehicle.
-2. Replace the BMS.
-3. Replace the MCU.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="100" customHeight="1">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>0xe71802</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>CAN MSG VCU8_10 Mismatch</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>0x27</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>Warning</t>
-        </is>
-      </c>
-      <c r="F14" s="1" t="inlineStr">
-        <is>
-          <t>VCU8_10 MsgOFV</t>
-        </is>
-      </c>
-      <c r="G14" s="1" t="inlineStr">
-        <is>
-          <t>1. Verify that the harness is connected properly to the MCU and the vehicle.
-2. Replace the VCU.
-3. Replace the MCU.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="100" customHeight="1">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>0xe71403</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>CAN MSG VCU8_10 Alive Counter</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>0x27</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E15" s="1" t="inlineStr">
-        <is>
-          <t>Warning</t>
-        </is>
-      </c>
-      <c r="F15" s="1" t="inlineStr">
-        <is>
-          <t>VCU8_10 MsgOFV</t>
-        </is>
-      </c>
-      <c r="G15" s="1" t="inlineStr">
-        <is>
-          <t>1. Verify that the harness is connected properly to the MCU and the vehicle.
-2. Replace the VCU.
-3. Replace the MCU.</t>
+          <t>1. Replace the tester.
+2. Replace the MCU.</t>
         </is>
       </c>
     </row>
